--- a/DATA_Plan_entrepot.xlsx
+++ b/DATA_Plan_entrepot.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieumccutcheon/Polybois/Conception/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7B10CC-E28C-2E48-9AF5-138FA8F21661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0E0106-7114-2649-97EA-5FC71F8E6641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24920" yWindow="1240" windowWidth="20380" windowHeight="15260" xr2:uid="{898F68C3-730F-A947-AD6E-91E7FA3A0935}"/>
+    <workbookView xWindow="19060" yWindow="1540" windowWidth="25260" windowHeight="19240" activeTab="1" xr2:uid="{898F68C3-730F-A947-AD6E-91E7FA3A0935}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="plan" sheetId="1" r:id="rId1"/>
+    <sheet name="entrepot_a" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Summary">Summary!$A$1:$J$36</definedName>
+    <definedName name="Summary" localSheetId="1">entrepot_a!$A$1:$J$82</definedName>
+    <definedName name="Summary">plan!$A$1:$J$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="56">
   <si>
     <t>Count</t>
   </si>
@@ -97,6 +99,111 @@
   </si>
   <si>
     <t>EXTERIEUR</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A24</t>
   </si>
 </sst>
 </file>
@@ -470,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2942258C-F2A3-554C-A0E1-BDE1BB23FD40}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -1511,4 +1618,1957 @@
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F09EA1F-762F-CA48-B1AB-FED4B7D50319}">
+  <dimension ref="A1:J82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="256" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1442.1984</v>
+      </c>
+      <c r="D2" s="2">
+        <v>637.60209999999995</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1292.2499</v>
+      </c>
+      <c r="F2" s="2">
+        <v>637.60209999999995</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1292.2499</v>
+      </c>
+      <c r="D3" s="2">
+        <v>637.60209999999995</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1292.2499</v>
+      </c>
+      <c r="F3" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1442.1984</v>
+      </c>
+      <c r="D4" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1442.1984</v>
+      </c>
+      <c r="F4" s="2">
+        <v>637.60209999999995</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1452.3761</v>
+      </c>
+      <c r="D5" s="2">
+        <v>66.44</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1452.3761</v>
+      </c>
+      <c r="F5" s="2">
+        <v>449.41809999999998</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1452.3761</v>
+      </c>
+      <c r="D6" s="2">
+        <v>246.80539999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1281.4143999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>246.80539999999999</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>934.93140000000005</v>
+      </c>
+      <c r="D7" s="2">
+        <v>76.711699999999993</v>
+      </c>
+      <c r="E7" s="2">
+        <v>934.93140000000005</v>
+      </c>
+      <c r="F7" s="2">
+        <v>215.23759999999999</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>798.06640000000004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>76.711699999999993</v>
+      </c>
+      <c r="E8" s="2">
+        <v>798.06640000000004</v>
+      </c>
+      <c r="F8" s="2">
+        <v>215.23759999999999</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>934.93140000000005</v>
+      </c>
+      <c r="D9" s="2">
+        <v>144.3886</v>
+      </c>
+      <c r="E9" s="2">
+        <v>387.47149999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>144.3886</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1292.2499</v>
+      </c>
+      <c r="D10" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1442.1984</v>
+      </c>
+      <c r="F10" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>934.93140000000005</v>
+      </c>
+      <c r="D11" s="2">
+        <v>76.711699999999993</v>
+      </c>
+      <c r="E11" s="2">
+        <v>387.47149999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>76.711699999999993</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>190.2242</v>
+      </c>
+      <c r="D12" s="2">
+        <v>570.23800000000006</v>
+      </c>
+      <c r="E12" s="2">
+        <v>190.2242</v>
+      </c>
+      <c r="F12" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>190.2242</v>
+      </c>
+      <c r="D13" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="E13" s="2">
+        <v>294.91340000000002</v>
+      </c>
+      <c r="F13" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>294.91340000000002</v>
+      </c>
+      <c r="D14" s="2">
+        <v>570.23800000000006</v>
+      </c>
+      <c r="E14" s="2">
+        <v>190.2242</v>
+      </c>
+      <c r="F14" s="2">
+        <v>570.23800000000006</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>174.2886</v>
+      </c>
+      <c r="D15" s="2">
+        <v>511.07249999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>243.5515</v>
+      </c>
+      <c r="F15" s="2">
+        <v>511.07249999999999</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>294.91340000000002</v>
+      </c>
+      <c r="D16" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="E16" s="2">
+        <v>294.91340000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>570.23800000000006</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1366.8952999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>449.41809999999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1366.8952999999999</v>
+      </c>
+      <c r="F17" s="2">
+        <v>66.44</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1281.4143999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>66.44</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1452.3761</v>
+      </c>
+      <c r="F18" s="2">
+        <v>66.44</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1281.4143999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>421.85550000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1281.4143999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>66.44</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1366.8952999999999</v>
+      </c>
+      <c r="D20" s="2">
+        <v>421.85550000000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1281.4143999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>421.85550000000001</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1452.3761</v>
+      </c>
+      <c r="D21" s="2">
+        <v>449.41809999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1366.8952999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>449.41809999999998</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>461.61360000000002</v>
+      </c>
+      <c r="D22" s="2">
+        <v>517.62490000000003</v>
+      </c>
+      <c r="E22" s="2">
+        <v>461.61360000000002</v>
+      </c>
+      <c r="F22" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>324.74860000000001</v>
+      </c>
+      <c r="D23" s="2">
+        <v>584.39639999999997</v>
+      </c>
+      <c r="E23" s="2">
+        <v>324.74860000000001</v>
+      </c>
+      <c r="F23" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2">
+        <v>598.47860000000003</v>
+      </c>
+      <c r="D24" s="2">
+        <v>517.62490000000003</v>
+      </c>
+      <c r="E24" s="2">
+        <v>598.47860000000003</v>
+      </c>
+      <c r="F24" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>872.20860000000005</v>
+      </c>
+      <c r="D25" s="2">
+        <v>517.62490000000003</v>
+      </c>
+      <c r="E25" s="2">
+        <v>872.20860000000005</v>
+      </c>
+      <c r="F25" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>735.34360000000004</v>
+      </c>
+      <c r="D26" s="2">
+        <v>517.62490000000003</v>
+      </c>
+      <c r="E26" s="2">
+        <v>735.34360000000004</v>
+      </c>
+      <c r="F26" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>157.3409</v>
+      </c>
+      <c r="D27" s="2">
+        <v>64.232399999999998</v>
+      </c>
+      <c r="E27" s="2">
+        <v>157.3409</v>
+      </c>
+      <c r="F27" s="2">
+        <v>733.3501</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1454.6809000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>733.3501</v>
+      </c>
+      <c r="E28" s="2">
+        <v>157.3409</v>
+      </c>
+      <c r="F28" s="2">
+        <v>733.3501</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1454.6809000000001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>64.232399999999998</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1454.6809000000001</v>
+      </c>
+      <c r="F29" s="2">
+        <v>733.3501</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1282.8035</v>
+      </c>
+      <c r="D30" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="E30" s="2">
+        <v>324.74860000000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1454.6809000000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>64.232399999999998</v>
+      </c>
+      <c r="E31" s="2">
+        <v>157.3409</v>
+      </c>
+      <c r="F31" s="2">
+        <v>64.232399999999998</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>934.93140000000005</v>
+      </c>
+      <c r="D32" s="2">
+        <v>215.23759999999999</v>
+      </c>
+      <c r="E32" s="2">
+        <v>387.47149999999999</v>
+      </c>
+      <c r="F32" s="2">
+        <v>215.23759999999999</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1282.8035</v>
+      </c>
+      <c r="D33" s="2">
+        <v>584.39639999999997</v>
+      </c>
+      <c r="E33" s="2">
+        <v>324.74860000000001</v>
+      </c>
+      <c r="F33" s="2">
+        <v>584.39639999999997</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2">
+        <v>387.47149999999999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>76.711699999999993</v>
+      </c>
+      <c r="E34" s="2">
+        <v>387.47149999999999</v>
+      </c>
+      <c r="F34" s="2">
+        <v>215.23759999999999</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <v>661.20140000000004</v>
+      </c>
+      <c r="D35" s="2">
+        <v>76.711699999999993</v>
+      </c>
+      <c r="E35" s="2">
+        <v>661.20140000000004</v>
+      </c>
+      <c r="F35" s="2">
+        <v>215.23759999999999</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2">
+        <v>524.3365</v>
+      </c>
+      <c r="D36" s="2">
+        <v>76.711699999999993</v>
+      </c>
+      <c r="E36" s="2">
+        <v>524.3365</v>
+      </c>
+      <c r="F36" s="2">
+        <v>215.23759999999999</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1145.9386</v>
+      </c>
+      <c r="D37" s="2">
+        <v>517.62490000000003</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1145.9386</v>
+      </c>
+      <c r="F37" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1009.0736000000001</v>
+      </c>
+      <c r="D38" s="2">
+        <v>517.62490000000003</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1009.0736000000001</v>
+      </c>
+      <c r="F38" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1282.8035</v>
+      </c>
+      <c r="D39" s="2">
+        <v>584.39639999999997</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1282.8035</v>
+      </c>
+      <c r="F39" s="2">
+        <v>722.92229999999995</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1282.8035</v>
+      </c>
+      <c r="D40" s="2">
+        <v>652.07339999999999</v>
+      </c>
+      <c r="E40" s="2">
+        <v>324.74860000000001</v>
+      </c>
+      <c r="F40" s="2">
+        <v>652.07339999999999</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1145.9386</v>
+      </c>
+      <c r="D41" s="2">
+        <v>517.62490000000003</v>
+      </c>
+      <c r="E41" s="2">
+        <v>461.61360000000002</v>
+      </c>
+      <c r="F41" s="2">
+        <v>517.62490000000003</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2">
+        <v>174.2886</v>
+      </c>
+      <c r="D42" s="2">
+        <v>374.20749999999998</v>
+      </c>
+      <c r="E42" s="2">
+        <v>312.81450000000001</v>
+      </c>
+      <c r="F42" s="2">
+        <v>374.20749999999998</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="2">
+        <v>20</v>
+      </c>
+      <c r="H43" s="2">
+        <v>924.42</v>
+      </c>
+      <c r="I43" s="2">
+        <v>606.38430000000005</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="2">
+        <v>20</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1060.5238999999999</v>
+      </c>
+      <c r="I44" s="2">
+        <v>606.38430000000005</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="2">
+        <v>20</v>
+      </c>
+      <c r="H45" s="2">
+        <v>778.53139999999996</v>
+      </c>
+      <c r="I45" s="2">
+        <v>543.76030000000003</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="2">
+        <v>20</v>
+      </c>
+      <c r="H46" s="2">
+        <v>515.9538</v>
+      </c>
+      <c r="I46" s="2">
+        <v>543.76030000000003</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="2">
+        <v>20</v>
+      </c>
+      <c r="H47" s="2">
+        <v>644.35360000000003</v>
+      </c>
+      <c r="I47" s="2">
+        <v>543.76030000000003</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="2">
+        <v>20</v>
+      </c>
+      <c r="H48" s="2">
+        <v>644.35360000000003</v>
+      </c>
+      <c r="I48" s="2">
+        <v>606.38430000000005</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="2">
+        <v>20</v>
+      </c>
+      <c r="H49" s="2">
+        <v>778.53139999999996</v>
+      </c>
+      <c r="I49" s="2">
+        <v>606.38430000000005</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="2">
+        <v>20</v>
+      </c>
+      <c r="H50" s="2">
+        <v>515.9538</v>
+      </c>
+      <c r="I50" s="2">
+        <v>606.38430000000005</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="2">
+        <v>20</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1188.9237000000001</v>
+      </c>
+      <c r="I51" s="2">
+        <v>606.38430000000005</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="2">
+        <v>20</v>
+      </c>
+      <c r="H52" s="2">
+        <v>379.84989999999999</v>
+      </c>
+      <c r="I52" s="2">
+        <v>606.38430000000005</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="2">
+        <v>20</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1389.5237999999999</v>
+      </c>
+      <c r="I53" s="2">
+        <v>342.7706</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="2">
+        <v>20</v>
+      </c>
+      <c r="H54" s="2">
+        <v>220.191</v>
+      </c>
+      <c r="I54" s="2">
+        <v>635.70079999999996</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="2">
+        <v>20</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1300.9362000000001</v>
+      </c>
+      <c r="I55" s="2">
+        <v>336.2124</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="2">
+        <v>20</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1302.0299</v>
+      </c>
+      <c r="I56" s="2">
+        <v>141.65430000000001</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="2">
+        <v>20</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1390.6175000000001</v>
+      </c>
+      <c r="I57" s="2">
+        <v>146.0264</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="2">
+        <v>20</v>
+      </c>
+      <c r="H58" s="2">
+        <v>924.42</v>
+      </c>
+      <c r="I58" s="2">
+        <v>543.76030000000003</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="2">
+        <v>20</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1060.5238999999999</v>
+      </c>
+      <c r="I59" s="2">
+        <v>543.76030000000003</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="2">
+        <v>20</v>
+      </c>
+      <c r="H60" s="2">
+        <v>258.89580000000001</v>
+      </c>
+      <c r="I60" s="2">
+        <v>292.34519999999998</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="2">
+        <v>20</v>
+      </c>
+      <c r="H61" s="2">
+        <v>190.59059999999999</v>
+      </c>
+      <c r="I61" s="2">
+        <v>430.59350000000001</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="2">
+        <v>20</v>
+      </c>
+      <c r="H62" s="2">
+        <v>190.61099999999999</v>
+      </c>
+      <c r="I62" s="2">
+        <v>292.34519999999998</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="2">
+        <v>20</v>
+      </c>
+      <c r="H63" s="2">
+        <v>705.9461</v>
+      </c>
+      <c r="I63" s="2">
+        <v>101.4258</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="2">
+        <v>20</v>
+      </c>
+      <c r="H64" s="2">
+        <v>850.04700000000003</v>
+      </c>
+      <c r="I64" s="2">
+        <v>167.46979999999999</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="2">
+        <v>20</v>
+      </c>
+      <c r="H65" s="2">
+        <v>707.77250000000004</v>
+      </c>
+      <c r="I65" s="2">
+        <v>166.9716</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="2">
+        <v>20</v>
+      </c>
+      <c r="H66" s="2">
+        <v>439.30189999999999</v>
+      </c>
+      <c r="I66" s="2">
+        <v>101.136</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="2">
+        <v>20</v>
+      </c>
+      <c r="H67" s="2">
+        <v>443.53789999999998</v>
+      </c>
+      <c r="I67" s="2">
+        <v>169.7106</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="2">
+        <v>174.2886</v>
+      </c>
+      <c r="D68" s="2">
+        <v>237.3425</v>
+      </c>
+      <c r="E68" s="2">
+        <v>174.2886</v>
+      </c>
+      <c r="F68" s="2">
+        <v>511.07249999999999</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="2">
+        <v>174.2886</v>
+      </c>
+      <c r="D69" s="2">
+        <v>237.3425</v>
+      </c>
+      <c r="E69" s="2">
+        <v>312.81450000000001</v>
+      </c>
+      <c r="F69" s="2">
+        <v>237.3425</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="2">
+        <v>312.81450000000001</v>
+      </c>
+      <c r="D70" s="2">
+        <v>237.3425</v>
+      </c>
+      <c r="E70" s="2">
+        <v>312.81450000000001</v>
+      </c>
+      <c r="F70" s="2">
+        <v>374.20749999999998</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="2">
+        <v>20</v>
+      </c>
+      <c r="H71" s="2">
+        <v>847.17539999999997</v>
+      </c>
+      <c r="I71" s="2">
+        <v>101.4258</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="2">
+        <v>243.5515</v>
+      </c>
+      <c r="D72" s="2">
+        <v>237.3425</v>
+      </c>
+      <c r="E72" s="2">
+        <v>243.5515</v>
+      </c>
+      <c r="F72" s="2">
+        <v>511.07249999999999</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="2">
+        <v>20</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1347.9641999999999</v>
+      </c>
+      <c r="I73" s="2">
+        <v>670.67750000000001</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="2">
+        <v>20</v>
+      </c>
+      <c r="H74" s="2">
+        <v>379.84989999999999</v>
+      </c>
+      <c r="I74" s="2">
+        <v>677.35829999999999</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="2">
+        <v>20</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1188.9237000000001</v>
+      </c>
+      <c r="I75" s="2">
+        <v>677.35829999999999</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="2">
+        <v>20</v>
+      </c>
+      <c r="H76" s="2">
+        <v>924.42</v>
+      </c>
+      <c r="I76" s="2">
+        <v>677.35829999999999</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="2">
+        <v>20</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1060.5238999999999</v>
+      </c>
+      <c r="I77" s="2">
+        <v>677.35829999999999</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="2">
+        <v>20</v>
+      </c>
+      <c r="H78" s="2">
+        <v>573.02089999999998</v>
+      </c>
+      <c r="I78" s="2">
+        <v>100.556</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="2">
+        <v>20</v>
+      </c>
+      <c r="H79" s="2">
+        <v>584.59770000000003</v>
+      </c>
+      <c r="I79" s="2">
+        <v>169.7106</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="2">
+        <v>20</v>
+      </c>
+      <c r="H80" s="2">
+        <v>778.53139999999996</v>
+      </c>
+      <c r="I80" s="2">
+        <v>677.35829999999999</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="2">
+        <v>20</v>
+      </c>
+      <c r="H81" s="2">
+        <v>515.9538</v>
+      </c>
+      <c r="I81" s="2">
+        <v>677.35829999999999</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="2">
+        <v>20</v>
+      </c>
+      <c r="H82" s="2">
+        <v>644.35360000000003</v>
+      </c>
+      <c r="I82" s="2">
+        <v>677.35829999999999</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/DATA_Plan_entrepot.xlsx
+++ b/DATA_Plan_entrepot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieumccutcheon/Polybois/Conception/Gestion_stock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieumccutcheon/Polybois/Conception/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAE14CB-D0B2-6240-AA68-95D29BE9490B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF85FC8A-87AE-F344-991F-F1500CB18B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1540" windowWidth="25260" windowHeight="19240" activeTab="7" xr2:uid="{898F68C3-730F-A947-AD6E-91E7FA3A0935}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="4" xr2:uid="{898F68C3-730F-A947-AD6E-91E7FA3A0935}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2942258C-F2A3-554C-A0E1-BDE1BB23FD40}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="142" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
@@ -1621,10 +1621,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -3588,10 +3586,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -3606,6 +3602,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3620,6 +3617,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3627,11 +3625,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F0D62F-9CC9-B741-9457-43C9E31A2290}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3663,7 +3662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02D2C43-E9F2-7C41-A6C3-C6A11A16B608}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>

--- a/DATA_Plan_entrepot.xlsx
+++ b/DATA_Plan_entrepot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieumccutcheon/Polybois/Conception/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF85FC8A-87AE-F344-991F-F1500CB18B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B8F1E5-FE6D-7740-AC5B-6AAD48011864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="4" xr2:uid="{898F68C3-730F-A947-AD6E-91E7FA3A0935}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="34560" windowHeight="20040" activeTab="6" xr2:uid="{898F68C3-730F-A947-AD6E-91E7FA3A0935}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="113">
   <si>
     <t>Count</t>
   </si>
@@ -212,6 +212,177 @@
   </si>
   <si>
     <t>A24</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>DO11</t>
+  </si>
+  <si>
+    <t>DO10</t>
+  </si>
+  <si>
+    <t>DO8</t>
+  </si>
+  <si>
+    <t>DO9</t>
+  </si>
+  <si>
+    <t>DO15</t>
+  </si>
+  <si>
+    <t>DO14</t>
+  </si>
+  <si>
+    <t>DO12</t>
+  </si>
+  <si>
+    <t>DO13</t>
+  </si>
+  <si>
+    <t>DO4</t>
+  </si>
+  <si>
+    <t>DO3</t>
+  </si>
+  <si>
+    <t>DO1</t>
+  </si>
+  <si>
+    <t>DO2</t>
+  </si>
+  <si>
+    <t>DO7</t>
+  </si>
+  <si>
+    <t>DO6</t>
+  </si>
+  <si>
+    <t>DO5</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CO1</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO3</t>
+  </si>
+  <si>
+    <t>SHIP</t>
+  </si>
+  <si>
+    <t>EXT5</t>
+  </si>
+  <si>
+    <t>EXT6</t>
+  </si>
+  <si>
+    <t>EXT7</t>
+  </si>
+  <si>
+    <t>EXT2</t>
+  </si>
+  <si>
+    <t>EXT3</t>
+  </si>
+  <si>
+    <t>EXT4</t>
+  </si>
+  <si>
+    <t>EXT11</t>
+  </si>
+  <si>
+    <t>EXT12</t>
+  </si>
+  <si>
+    <t>EXT13</t>
+  </si>
+  <si>
+    <t>EXT8</t>
+  </si>
+  <si>
+    <t>EXT9</t>
+  </si>
+  <si>
+    <t>EXT10</t>
+  </si>
+  <si>
+    <t>EXT1</t>
   </si>
 </sst>
 </file>
@@ -244,11 +415,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +758,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
@@ -3593,14 +3765,1239 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32837C1-0F56-6C46-85E7-017AD193D8B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1234.8108</v>
+      </c>
+      <c r="D2" s="1">
+        <v>659.16800000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>897.85339999999997</v>
+      </c>
+      <c r="F2" s="1">
+        <v>659.16800000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>897.85339999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>636.89580000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>704.68640000000005</v>
+      </c>
+      <c r="F3" s="1">
+        <v>636.89580000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>897.85339999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>530.39210000000003</v>
+      </c>
+      <c r="E4" s="1">
+        <v>704.68640000000005</v>
+      </c>
+      <c r="F4" s="1">
+        <v>530.39210000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1234.8108</v>
+      </c>
+      <c r="D5" s="1">
+        <v>574.9366</v>
+      </c>
+      <c r="E5" s="1">
+        <v>897.85339999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>574.9366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>897.85339999999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>406.47390000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>897.85339999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>743.39940000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1234.8108</v>
+      </c>
+      <c r="D7" s="1">
+        <v>490.70530000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>897.85339999999997</v>
+      </c>
+      <c r="F7" s="1">
+        <v>490.70530000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1234.8108</v>
+      </c>
+      <c r="D8" s="1">
+        <v>406.47390000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>897.85339999999997</v>
+      </c>
+      <c r="F8" s="1">
+        <v>406.47390000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1234.8108</v>
+      </c>
+      <c r="D9" s="1">
+        <v>55.7423</v>
+      </c>
+      <c r="E9" s="1">
+        <v>729.06659999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>55.7423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>451.96039999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>55.7423</v>
+      </c>
+      <c r="E10" s="1">
+        <v>451.96039999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>244.75280000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>367.72899999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>244.75280000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>451.96039999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>244.75280000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>729.06659999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>55.7423</v>
+      </c>
+      <c r="E12" s="1">
+        <v>729.06659999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>210.941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>897.85339999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>423.88850000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>704.68640000000005</v>
+      </c>
+      <c r="F13" s="1">
+        <v>423.88850000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>813.298</v>
+      </c>
+      <c r="D14" s="1">
+        <v>55.7423</v>
+      </c>
+      <c r="E14" s="1">
+        <v>813.298</v>
+      </c>
+      <c r="F14" s="1">
+        <v>210.941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>729.06659999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>210.941</v>
+      </c>
+      <c r="E15" s="1">
+        <v>813.298</v>
+      </c>
+      <c r="F15" s="1">
+        <v>210.941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>536.20770000000005</v>
+      </c>
+      <c r="D16" s="1">
+        <v>406.47390000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>536.20770000000005</v>
+      </c>
+      <c r="F16" s="1">
+        <v>743.39940000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>704.68640000000005</v>
+      </c>
+      <c r="D17" s="1">
+        <v>406.47390000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>704.68640000000005</v>
+      </c>
+      <c r="F17" s="1">
+        <v>743.39940000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1234.8108</v>
+      </c>
+      <c r="D18" s="1">
+        <v>406.47390000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1234.8108</v>
+      </c>
+      <c r="F18" s="1">
+        <v>743.39940000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1243.9187999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>49.260100000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>356.08120000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>49.260100000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>356.08120000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>49.260100000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>356.08120000000002</v>
+      </c>
+      <c r="F20" s="1">
+        <v>750.73990000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1243.9187999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>49.260100000000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1243.9187999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>750.73990000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1243.9187999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>750.73990000000003</v>
+      </c>
+      <c r="E22" s="1">
+        <v>356.08120000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>750.73990000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1234.8108</v>
+      </c>
+      <c r="D23" s="1">
+        <v>743.39940000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>367.72899999999998</v>
+      </c>
+      <c r="F23" s="1">
+        <v>743.39940000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>367.72899999999998</v>
+      </c>
+      <c r="D24" s="1">
+        <v>406.47390000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>367.72899999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <v>743.39940000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1066.3321000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>406.47390000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1066.3321000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>743.39940000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>704.68640000000005</v>
+      </c>
+      <c r="D26" s="1">
+        <v>659.16800000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>367.72899999999998</v>
+      </c>
+      <c r="F26" s="1">
+        <v>659.16800000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>704.68640000000005</v>
+      </c>
+      <c r="D27" s="1">
+        <v>490.70530000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>367.72899999999998</v>
+      </c>
+      <c r="F27" s="1">
+        <v>490.70530000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>704.68640000000005</v>
+      </c>
+      <c r="D28" s="1">
+        <v>406.47390000000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>367.72899999999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>406.47390000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>704.68640000000005</v>
+      </c>
+      <c r="D29" s="1">
+        <v>574.9366</v>
+      </c>
+      <c r="E29" s="1">
+        <v>367.72899999999998</v>
+      </c>
+      <c r="F29" s="1">
+        <v>574.9366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1">
+        <v>20</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1135.0534</v>
+      </c>
+      <c r="I30" s="1">
+        <v>602.63670000000002</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1">
+        <v>779.66669999999999</v>
+      </c>
+      <c r="I31" s="1">
+        <v>465.34780000000001</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1">
+        <v>966.92809999999997</v>
+      </c>
+      <c r="I32" s="1">
+        <v>519.99009999999998</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1">
+        <v>966.24469999999997</v>
+      </c>
+      <c r="I33" s="1">
+        <v>602.63670000000002</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1">
+        <v>20</v>
+      </c>
+      <c r="H34" s="1">
+        <v>591.03830000000005</v>
+      </c>
+      <c r="I34" s="1">
+        <v>518.6241</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1">
+        <v>966.24469999999997</v>
+      </c>
+      <c r="I35" s="1">
+        <v>690.74739999999997</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1135.0534</v>
+      </c>
+      <c r="I36" s="1">
+        <v>690.74739999999997</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1">
+        <v>20</v>
+      </c>
+      <c r="H37" s="1">
+        <v>889.16970000000003</v>
+      </c>
+      <c r="I37" s="1">
+        <v>95.585899999999995</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="1">
+        <v>20</v>
+      </c>
+      <c r="H38" s="1">
+        <v>743.9289</v>
+      </c>
+      <c r="I38" s="1">
+        <v>122.9736</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="1">
+        <v>20</v>
+      </c>
+      <c r="H39" s="1">
+        <v>380.82679999999999</v>
+      </c>
+      <c r="I39" s="1">
+        <v>132.5592</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1">
+        <v>20</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1101.5501999999999</v>
+      </c>
+      <c r="I40" s="1">
+        <v>95.585899999999995</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1">
+        <v>20</v>
+      </c>
+      <c r="H41" s="1">
+        <v>966.24469999999997</v>
+      </c>
+      <c r="I41" s="1">
+        <v>437.34359999999998</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="1">
+        <v>20</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1135.0534</v>
+      </c>
+      <c r="I42" s="1">
+        <v>437.34359999999998</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1">
+        <v>20</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1128.2190000000001</v>
+      </c>
+      <c r="I43" s="1">
+        <v>519.99009999999998</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1024.0544</v>
+      </c>
+      <c r="D44" s="1">
+        <v>55.7423</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1024.0544</v>
+      </c>
+      <c r="F44" s="1">
+        <v>159.761</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1">
+        <v>20</v>
+      </c>
+      <c r="H45" s="1">
+        <v>431.7978</v>
+      </c>
+      <c r="I45" s="1">
+        <v>690.74739999999997</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="1">
+        <v>20</v>
+      </c>
+      <c r="H46" s="1">
+        <v>600.60649999999998</v>
+      </c>
+      <c r="I46" s="1">
+        <v>690.74739999999997</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1234.8108</v>
+      </c>
+      <c r="D47" s="1">
+        <v>159.761</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1234.8108</v>
+      </c>
+      <c r="F47" s="1">
+        <v>55.7423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1">
+        <v>367.72899999999998</v>
+      </c>
+      <c r="D48" s="1">
+        <v>55.7423</v>
+      </c>
+      <c r="E48" s="1">
+        <v>367.72899999999998</v>
+      </c>
+      <c r="F48" s="1">
+        <v>244.75280000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
+        <v>451.96039999999999</v>
+      </c>
+      <c r="D49" s="1">
+        <v>55.7423</v>
+      </c>
+      <c r="E49" s="1">
+        <v>367.72899999999998</v>
+      </c>
+      <c r="F49" s="1">
+        <v>55.7423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1234.8108</v>
+      </c>
+      <c r="D50" s="1">
+        <v>159.761</v>
+      </c>
+      <c r="E50" s="1">
+        <v>813.298</v>
+      </c>
+      <c r="F50" s="1">
+        <v>159.761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1">
+        <v>20</v>
+      </c>
+      <c r="H51" s="1">
+        <v>600.60649999999998</v>
+      </c>
+      <c r="I51" s="1">
+        <v>437.34359999999998</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1">
+        <v>20</v>
+      </c>
+      <c r="H52" s="1">
+        <v>784.45069999999998</v>
+      </c>
+      <c r="I52" s="1">
+        <v>679.81899999999996</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1">
+        <v>20</v>
+      </c>
+      <c r="H53" s="1">
+        <v>781.71699999999998</v>
+      </c>
+      <c r="I53" s="1">
+        <v>571.90039999999999</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="1">
+        <v>20</v>
+      </c>
+      <c r="H54" s="1">
+        <v>431.7978</v>
+      </c>
+      <c r="I54" s="1">
+        <v>437.34359999999998</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="1">
+        <v>20</v>
+      </c>
+      <c r="H55" s="1">
+        <v>431.7978</v>
+      </c>
+      <c r="I55" s="1">
+        <v>602.63670000000002</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1">
+        <v>20</v>
+      </c>
+      <c r="H56" s="1">
+        <v>600.60649999999998</v>
+      </c>
+      <c r="I56" s="1">
+        <v>602.63670000000002</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1">
+        <v>20</v>
+      </c>
+      <c r="H57" s="1">
+        <v>431.7978</v>
+      </c>
+      <c r="I57" s="1">
+        <v>519.99009999999998</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3608,14 +5005,153 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CEE122-83C0-1145-B910-AB1BA324D19B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1257.8144</v>
+      </c>
+      <c r="D2" s="4">
+        <v>705.20960000000002</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1257.8144</v>
+      </c>
+      <c r="F2" s="4">
+        <v>94.790400000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1257.8144</v>
+      </c>
+      <c r="D3" s="4">
+        <v>94.790400000000005</v>
+      </c>
+      <c r="E3" s="4">
+        <v>342.18560000000002</v>
+      </c>
+      <c r="F3" s="4">
+        <v>94.790400000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>342.18560000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>705.20960000000002</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1257.8144</v>
+      </c>
+      <c r="F4" s="4">
+        <v>705.20960000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4">
+        <v>762.60889999999995</v>
+      </c>
+      <c r="I5" s="4">
+        <v>393.72210000000001</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>342.18560000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>94.790400000000005</v>
+      </c>
+      <c r="E6" s="4">
+        <v>342.18560000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>705.20960000000002</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3623,12 +5159,758 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F0D62F-9CC9-B741-9457-43C9E31A2290}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>936.86500000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>293.47129999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>663.13499999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>293.47129999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>936.86500000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>370.27069999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>663.13499999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>370.27069999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>936.86500000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>139.87270000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>663.13499999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>139.87270000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>936.86500000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>216.672</v>
+      </c>
+      <c r="E5" s="1">
+        <v>663.13499999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>216.672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1048.4622999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>600.66859999999997</v>
+      </c>
+      <c r="E6" s="1">
+        <v>550.11360000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>600.66859999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1048.4622999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>63.073399999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1048.4622999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>600.66859999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>936.86500000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>447.07</v>
+      </c>
+      <c r="E8" s="1">
+        <v>663.13499999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>447.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>936.86500000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>523.86929999999995</v>
+      </c>
+      <c r="E9" s="1">
+        <v>663.13499999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>523.86929999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1061.5165</v>
+      </c>
+      <c r="D10" s="1">
+        <v>748.68870000000004</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1061.5165</v>
+      </c>
+      <c r="F10" s="1">
+        <v>51.311300000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1061.5165</v>
+      </c>
+      <c r="D11" s="1">
+        <v>51.311300000000003</v>
+      </c>
+      <c r="E11" s="1">
+        <v>538.48350000000005</v>
+      </c>
+      <c r="F11" s="1">
+        <v>51.311300000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1061.5165</v>
+      </c>
+      <c r="D12" s="1">
+        <v>748.68870000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>538.48350000000005</v>
+      </c>
+      <c r="F12" s="1">
+        <v>748.68870000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>538.48350000000005</v>
+      </c>
+      <c r="D13" s="1">
+        <v>51.311300000000003</v>
+      </c>
+      <c r="E13" s="1">
+        <v>538.48350000000005</v>
+      </c>
+      <c r="F13" s="1">
+        <v>748.68870000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>936.86500000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>63.073399999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>936.86500000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>600.66859999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1048.4622999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>63.073399999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>550.11360000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>63.073399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>663.13499999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>63.073399999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>663.13499999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>600.66859999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>800</v>
+      </c>
+      <c r="D17" s="1">
+        <v>63.073399999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>800</v>
+      </c>
+      <c r="F17" s="1">
+        <v>600.66859999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>550.11360000000002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>63.073399999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>550.11360000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>600.66859999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1">
+        <v>834.60400000000004</v>
+      </c>
+      <c r="I19" s="1">
+        <v>477.52350000000001</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1">
+        <v>706.3229</v>
+      </c>
+      <c r="I20" s="1">
+        <v>475.8546</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1">
+        <v>706.3229</v>
+      </c>
+      <c r="I21" s="1">
+        <v>400.19869999999997</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1">
+        <v>841.58270000000005</v>
+      </c>
+      <c r="I22" s="1">
+        <v>400.19869999999997</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1">
+        <v>962.52359999999999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>321.50409999999999</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1">
+        <v>578.54399999999998</v>
+      </c>
+      <c r="I24" s="1">
+        <v>318.15069999999997</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1">
+        <v>706.3229</v>
+      </c>
+      <c r="I25" s="1">
+        <v>552.31460000000004</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1">
+        <v>833.70939999999996</v>
+      </c>
+      <c r="I26" s="1">
+        <v>552.31460000000004</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1">
+        <v>844.36580000000004</v>
+      </c>
+      <c r="I27" s="1">
+        <v>168.40530000000001</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1">
+        <v>706.3229</v>
+      </c>
+      <c r="I28" s="1">
+        <v>166.7364</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1">
+        <v>20</v>
+      </c>
+      <c r="H29" s="1">
+        <v>706.3229</v>
+      </c>
+      <c r="I29" s="1">
+        <v>91.080500000000001</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1">
+        <v>20</v>
+      </c>
+      <c r="H30" s="1">
+        <v>841.58270000000005</v>
+      </c>
+      <c r="I30" s="1">
+        <v>91.080500000000001</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1">
+        <v>844.36580000000004</v>
+      </c>
+      <c r="I31" s="1">
+        <v>320.45800000000003</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1">
+        <v>706.3229</v>
+      </c>
+      <c r="I32" s="1">
+        <v>318.78919999999999</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1">
+        <v>706.3229</v>
+      </c>
+      <c r="I33" s="1">
+        <v>243.13319999999999</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1">
+        <v>20</v>
+      </c>
+      <c r="H34" s="1">
+        <v>841.58270000000005</v>
+      </c>
+      <c r="I34" s="1">
+        <v>243.13319999999999</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3636,24 +5918,452 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618639CD-689E-ED45-9F53-8DBB1D49B236}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>863.21019999999999</v>
+      </c>
+      <c r="D2" s="4">
+        <v>657.27059999999994</v>
+      </c>
+      <c r="E2" s="4">
+        <v>742.13729999999998</v>
+      </c>
+      <c r="F2" s="4">
+        <v>657.27059999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>866.91700000000003</v>
+      </c>
+      <c r="D3" s="4">
+        <v>139.81880000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>863.21019999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>657.27059999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>742.13729999999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>139.81880000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>866.91700000000003</v>
+      </c>
+      <c r="F4" s="4">
+        <v>139.81880000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>733.08299999999997</v>
+      </c>
+      <c r="D5" s="4">
+        <v>132.33189999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>733.08299999999997</v>
+      </c>
+      <c r="F5" s="4">
+        <v>667.66809999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>866.91700000000003</v>
+      </c>
+      <c r="D6" s="4">
+        <v>667.66809999999998</v>
+      </c>
+      <c r="E6" s="4">
+        <v>733.08299999999997</v>
+      </c>
+      <c r="F6" s="4">
+        <v>667.66809999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>866.91700000000003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>132.33189999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>733.08299999999997</v>
+      </c>
+      <c r="F7" s="4">
+        <v>132.33189999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4">
+        <v>777.90039999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>554.27380000000005</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4">
+        <v>777.90039999999999</v>
+      </c>
+      <c r="I9" s="4">
+        <v>384.8621</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4">
+        <v>777.90039999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <v>215.50299999999999</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>742.13729999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>657.27059999999994</v>
+      </c>
+      <c r="E11" s="4">
+        <v>742.13729999999998</v>
+      </c>
+      <c r="F11" s="4">
+        <v>139.81880000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>864.43600000000004</v>
+      </c>
+      <c r="D12" s="4">
+        <v>486.14670000000001</v>
+      </c>
+      <c r="E12" s="4">
+        <v>742.13729999999998</v>
+      </c>
+      <c r="F12" s="4">
+        <v>485.2706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>865.66809999999998</v>
+      </c>
+      <c r="D13" s="4">
+        <v>314.15559999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>742.13729999999998</v>
+      </c>
+      <c r="F13" s="4">
+        <v>313.2706</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A73A3EF-2BF0-4148-A2B6-36A048B53B48}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>536.27539999999999</v>
+      </c>
+      <c r="D2" s="4">
+        <v>735.39790000000005</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1063.7246</v>
+      </c>
+      <c r="F2" s="4">
+        <v>735.39790000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1063.7246</v>
+      </c>
+      <c r="D3" s="4">
+        <v>735.39790000000005</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1063.7246</v>
+      </c>
+      <c r="F3" s="4">
+        <v>64.602099999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>536.27539999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>64.602099999999993</v>
+      </c>
+      <c r="E4" s="4">
+        <v>536.27539999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>735.39790000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4">
+        <v>758.20910000000003</v>
+      </c>
+      <c r="I5" s="4">
+        <v>362.03789999999998</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1063.7246</v>
+      </c>
+      <c r="D6" s="4">
+        <v>64.602099999999993</v>
+      </c>
+      <c r="E6" s="4">
+        <v>536.27539999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>64.602099999999993</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3672,12 +6382,1069 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5068DC-EBD9-C948-AEAF-EA209C3F6FF9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1170.826</v>
+      </c>
+      <c r="D2" s="4">
+        <v>322.43099999999998</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1170.826</v>
+      </c>
+      <c r="F2" s="4">
+        <v>280.84339999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1559.4105</v>
+      </c>
+      <c r="D3" s="4">
+        <v>322.43099999999998</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1170.826</v>
+      </c>
+      <c r="F3" s="4">
+        <v>322.43099999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1559.4105</v>
+      </c>
+      <c r="D4" s="4">
+        <v>280.84339999999997</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1559.4105</v>
+      </c>
+      <c r="F4" s="4">
+        <v>322.43099999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1562.5407</v>
+      </c>
+      <c r="D5" s="4">
+        <v>325.46370000000002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1166.4434000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>325.46370000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>651.00049999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>373.95580000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>651.00049999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>325.46370000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>651.00049999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>373.95580000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>948.14070000000004</v>
+      </c>
+      <c r="F7" s="4">
+        <v>373.43950000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1268.3306</v>
+      </c>
+      <c r="D8" s="4">
+        <v>280.84339999999997</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1268.3306</v>
+      </c>
+      <c r="F8" s="4">
+        <v>322.43099999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>653.57330000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>370.09210000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>653.57330000000002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>328.50439999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>945.13109999999995</v>
+      </c>
+      <c r="D10" s="4">
+        <v>370.09210000000002</v>
+      </c>
+      <c r="E10" s="4">
+        <v>653.57330000000002</v>
+      </c>
+      <c r="F10" s="4">
+        <v>370.09210000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1170.826</v>
+      </c>
+      <c r="D11" s="4">
+        <v>280.84339999999997</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1559.4105</v>
+      </c>
+      <c r="F11" s="4">
+        <v>280.84339999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1462.3838000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>280.84339999999997</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1462.3838000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>322.43099999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1365.3571999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>280.84339999999997</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1365.3571999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>322.43099999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>651.00049999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>325.46370000000002</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1034.8069</v>
+      </c>
+      <c r="F14" s="4">
+        <v>325.46370000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>59.922899999999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>424.91340000000002</v>
+      </c>
+      <c r="E15" s="4">
+        <v>651.00049999999999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>325.46370000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>63.517400000000002</v>
+      </c>
+      <c r="D16" s="4">
+        <v>427.72989999999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>639.024</v>
+      </c>
+      <c r="F16" s="4">
+        <v>330.90010000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1562.5407</v>
+      </c>
+      <c r="D17" s="4">
+        <v>325.46370000000002</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1562.5407</v>
+      </c>
+      <c r="F17" s="4">
+        <v>277.48790000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1034.8069</v>
+      </c>
+      <c r="D18" s="4">
+        <v>277.48790000000002</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1562.5407</v>
+      </c>
+      <c r="F18" s="4">
+        <v>277.48790000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1034.8069</v>
+      </c>
+      <c r="D19" s="4">
+        <v>325.46370000000002</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1034.8069</v>
+      </c>
+      <c r="F19" s="4">
+        <v>277.48790000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1166.4434000000001</v>
+      </c>
+      <c r="D20" s="4">
+        <v>277.48790000000002</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1166.4434000000001</v>
+      </c>
+      <c r="F20" s="4">
+        <v>325.46370000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4">
+        <v>948.14070000000004</v>
+      </c>
+      <c r="D21" s="4">
+        <v>325.46370000000002</v>
+      </c>
+      <c r="E21" s="4">
+        <v>948.14070000000004</v>
+      </c>
+      <c r="F21" s="4">
+        <v>373.43950000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>59.922899999999998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>424.91340000000002</v>
+      </c>
+      <c r="E22" s="4">
+        <v>67.845299999999995</v>
+      </c>
+      <c r="F22" s="4">
+        <v>472.0883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>67.842699999999994</v>
+      </c>
+      <c r="D23" s="4">
+        <v>472.07279999999997</v>
+      </c>
+      <c r="E23" s="4">
+        <v>651.00049999999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>373.95580000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4">
+        <v>70.445099999999996</v>
+      </c>
+      <c r="D24" s="4">
+        <v>468.21319999999997</v>
+      </c>
+      <c r="E24" s="4">
+        <v>645.94749999999999</v>
+      </c>
+      <c r="F24" s="4">
+        <v>371.38409999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4">
+        <v>67.282899999999998</v>
+      </c>
+      <c r="D25" s="4">
+        <v>468.74520000000001</v>
+      </c>
+      <c r="E25" s="4">
+        <v>67.283900000000003</v>
+      </c>
+      <c r="F25" s="4">
+        <v>468.74509999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4">
+        <v>20</v>
+      </c>
+      <c r="H26" s="4">
+        <v>860.9683</v>
+      </c>
+      <c r="I26" s="4">
+        <v>339.33159999999998</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4">
+        <v>20</v>
+      </c>
+      <c r="H27" s="4">
+        <v>763.85789999999997</v>
+      </c>
+      <c r="I27" s="4">
+        <v>339.33159999999998</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4">
+        <v>20</v>
+      </c>
+      <c r="H28" s="4">
+        <v>664.86630000000002</v>
+      </c>
+      <c r="I28" s="4">
+        <v>339.33159999999998</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4">
+        <v>20</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1381.7392</v>
+      </c>
+      <c r="I29" s="4">
+        <v>292.43709999999999</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4">
+        <v>20</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1284.1251999999999</v>
+      </c>
+      <c r="I30" s="4">
+        <v>292.43709999999999</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="4">
+        <v>20</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1186.1044999999999</v>
+      </c>
+      <c r="I31" s="4">
+        <v>292.43709999999999</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4">
+        <v>20</v>
+      </c>
+      <c r="H32" s="4">
+        <v>265.95119999999997</v>
+      </c>
+      <c r="I32" s="4">
+        <v>399.12150000000003</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="4">
+        <v>20</v>
+      </c>
+      <c r="H33" s="4">
+        <v>168.18539999999999</v>
+      </c>
+      <c r="I33" s="4">
+        <v>414.68079999999998</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4">
+        <v>20</v>
+      </c>
+      <c r="H34" s="4">
+        <v>71.299300000000002</v>
+      </c>
+      <c r="I34" s="4">
+        <v>431.09629999999999</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4">
+        <v>20</v>
+      </c>
+      <c r="H35" s="4">
+        <v>559.16369999999995</v>
+      </c>
+      <c r="I35" s="4">
+        <v>349.56799999999998</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4">
+        <v>20</v>
+      </c>
+      <c r="H36" s="4">
+        <v>464.93270000000001</v>
+      </c>
+      <c r="I36" s="4">
+        <v>365.12740000000002</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="4">
+        <v>20</v>
+      </c>
+      <c r="H37" s="4">
+        <v>362.32049999999998</v>
+      </c>
+      <c r="I37" s="4">
+        <v>381.9151</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4">
+        <v>751.0779</v>
+      </c>
+      <c r="D38" s="4">
+        <v>328.50439999999998</v>
+      </c>
+      <c r="E38" s="4">
+        <v>751.0779</v>
+      </c>
+      <c r="F38" s="4">
+        <v>370.09210000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4">
+        <v>262.75060000000002</v>
+      </c>
+      <c r="D39" s="4">
+        <v>435.85750000000002</v>
+      </c>
+      <c r="E39" s="4">
+        <v>255.82429999999999</v>
+      </c>
+      <c r="F39" s="4">
+        <v>395.37400000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4">
+        <v>166.59780000000001</v>
+      </c>
+      <c r="D40" s="4">
+        <v>452.03539999999998</v>
+      </c>
+      <c r="E40" s="4">
+        <v>159.67080000000001</v>
+      </c>
+      <c r="F40" s="4">
+        <v>411.55189999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>653.57330000000002</v>
+      </c>
+      <c r="D41" s="4">
+        <v>328.50439999999998</v>
+      </c>
+      <c r="E41" s="4">
+        <v>945.13109999999995</v>
+      </c>
+      <c r="F41" s="4">
+        <v>328.50439999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4">
+        <v>945.13109999999995</v>
+      </c>
+      <c r="D42" s="4">
+        <v>328.50439999999998</v>
+      </c>
+      <c r="E42" s="4">
+        <v>945.13109999999995</v>
+      </c>
+      <c r="F42" s="4">
+        <v>370.09210000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="4">
+        <v>848.10450000000003</v>
+      </c>
+      <c r="D43" s="4">
+        <v>328.50439999999998</v>
+      </c>
+      <c r="E43" s="4">
+        <v>848.10450000000003</v>
+      </c>
+      <c r="F43" s="4">
+        <v>370.09210000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="4">
+        <v>447.65989999999999</v>
+      </c>
+      <c r="D44" s="4">
+        <v>363.09739999999999</v>
+      </c>
+      <c r="E44" s="4">
+        <v>454.5847</v>
+      </c>
+      <c r="F44" s="4">
+        <v>403.58120000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4">
+        <v>351.9778</v>
+      </c>
+      <c r="D45" s="4">
+        <v>379.19600000000003</v>
+      </c>
+      <c r="E45" s="4">
+        <v>358.9033</v>
+      </c>
+      <c r="F45" s="4">
+        <v>419.67970000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="4">
+        <v>20</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1478.5397</v>
+      </c>
+      <c r="I46" s="4">
+        <v>292.43709999999999</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4">
+        <v>70.445099999999996</v>
+      </c>
+      <c r="D47" s="4">
+        <v>468.21370000000002</v>
+      </c>
+      <c r="E47" s="4">
+        <v>63.517400000000002</v>
+      </c>
+      <c r="F47" s="4">
+        <v>427.72989999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4">
+        <v>639.024</v>
+      </c>
+      <c r="D48" s="4">
+        <v>330.90010000000001</v>
+      </c>
+      <c r="E48" s="4">
+        <v>645.94749999999999</v>
+      </c>
+      <c r="F48" s="4">
+        <v>371.38409999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="4">
+        <v>543.34199999999998</v>
+      </c>
+      <c r="D49" s="4">
+        <v>346.99869999999999</v>
+      </c>
+      <c r="E49" s="4">
+        <v>550.26610000000005</v>
+      </c>
+      <c r="F49" s="4">
+        <v>387.48259999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="4">
+        <v>651.00049999999999</v>
+      </c>
+      <c r="D50" s="4">
+        <v>325.46370000000002</v>
+      </c>
+      <c r="E50" s="4">
+        <v>651.00049999999999</v>
+      </c>
+      <c r="F50" s="4">
+        <v>325.46370000000002</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>